--- a/胸痛中心数据填报平台字段整理/胸痛病历字段.xlsx
+++ b/胸痛中心数据填报平台字段整理/胸痛病历字段.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="226">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,6 +863,46 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续性胸闷/胸痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间断性胸闷/胸痛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹痛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心衰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶性心率失常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心肺复苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并出血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,12 +953,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,17 +1239,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="90.88671875" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.2" x14ac:dyDescent="0.45">
@@ -1349,7 +1386,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B16" t="s">
@@ -1360,854 +1397,918 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="C102" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" t="s">
         <v>84</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C121" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A108:A110"/>
+  <mergeCells count="12">
+    <mergeCell ref="A65:A83"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A28:A43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A100:A110"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A84:A88"/>
     <mergeCell ref="A89:A99"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A88"/>
-    <mergeCell ref="A54:A72"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A48:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
